--- a/data/membership.xlsx
+++ b/data/membership.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Australasian Plant Pathology Society</t>
   </si>
   <si>
-    <t xml:space="preserve">AUS And NZL</t>
+    <t xml:space="preserve">AUS and NZL</t>
   </si>
   <si>
     <t xml:space="preserve">2004 – Present</t>
@@ -254,8 +254,8 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/membership.xlsx
+++ b/data/membership.xlsx
@@ -94,7 +94,7 @@
     <t xml:space="preserve">Australia National Plant Biosecurity Diagnostic Network</t>
   </si>
   <si>
-    <t xml:space="preserve">Australia</t>
+    <t xml:space="preserve">AUS</t>
   </si>
   <si>
     <t xml:space="preserve">GRDC Communities of Practice: Field Crop Diseases</t>
@@ -254,8 +254,8 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/membership.xlsx
+++ b/data/membership.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t xml:space="preserve">what</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t xml:space="preserve">GRDC Communities of Practice: Field Crop Diseases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016 – 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extensionAUS Field Crops Diseases Community of Practice</t>
   </si>
   <si>
     <t xml:space="preserve">International Congress of Plant Pathology (ICPP) Epidemiology Committee</t>
@@ -252,10 +258,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -402,7 +408,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>25</v>
@@ -412,40 +418,36 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>31</v>
@@ -453,19 +455,20 @@
       <c r="D13" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -473,13 +476,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,13 +490,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -501,13 +504,27 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>36</v>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
